--- a/scripts/data-migration/templates/LookUps_dev.xlsx
+++ b/scripts/data-migration/templates/LookUps_dev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\scripts\data-migration\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A982A44E-C906-4AD5-99F8-F2318AE34D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC21E1F-2875-47B6-A53A-F1F96218F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" firstSheet="12" activeTab="13" xr2:uid="{F5BB6D9E-42EF-4158-BD11-A31B5264AED3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="648" firstSheet="12" activeTab="15" xr2:uid="{F5BB6D9E-42EF-4158-BD11-A31B5264AED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <sheet name="Milestones" sheetId="11" r:id="rId12"/>
     <sheet name="Outcomes" sheetId="15" r:id="rId13"/>
     <sheet name="Regions" sheetId="16" r:id="rId14"/>
-    <sheet name="Sectors" sheetId="17" r:id="rId15"/>
-    <sheet name="Subsectors" sheetId="18" r:id="rId16"/>
+    <sheet name="Types" sheetId="17" r:id="rId15"/>
+    <sheet name="SubTypes" sheetId="18" r:id="rId16"/>
     <sheet name="Proponents" sheetId="19" r:id="rId17"/>
     <sheet name="Teams" sheetId="10" r:id="rId18"/>
   </sheets>
@@ -55,8 +55,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B3D5B7EA-B78B-4B56-B9D8-E23A83646D1C}</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B3D5B7EA-B78B-4B56-B9D8-E23A83646D1C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Do we need to change the convention of calling these entities to Type and Sub-Type instead of Sector and Subsector rest of the places in the application?
+Reply:
+    Yes
+This is the direction from Tiffany</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1175">
   <si>
     <t>Associate Deputy Minister</t>
   </si>
@@ -2651,9 +2672,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>sector</t>
-  </si>
-  <si>
     <t>Plant</t>
   </si>
   <si>
@@ -2684,9 +2702,6 @@
     <t>Offshore</t>
   </si>
   <si>
-    <t>Organic and Inorganic Chemicals</t>
-  </si>
-  <si>
     <t>Chemicals</t>
   </si>
   <si>
@@ -2822,9 +2837,6 @@
     <t>Babkirk Land Services Incorporated</t>
   </si>
   <si>
-    <t>Barkerville Gold Mines Ltd.</t>
-  </si>
-  <si>
     <t>BC Gas Utility Limited</t>
   </si>
   <si>
@@ -2879,9 +2891,6 @@
     <t>CCS Corporation</t>
   </si>
   <si>
-    <t>Cedar LNG Export Development Ltd.</t>
-  </si>
-  <si>
     <t>Centermount Coal Limited</t>
   </si>
   <si>
@@ -3029,9 +3038,6 @@
     <t>Glencore plc</t>
   </si>
   <si>
-    <t>Global Container Terminals</t>
-  </si>
-  <si>
     <t>Global Drilling Solutions Incorporated</t>
   </si>
   <si>
@@ -3350,9 +3356,6 @@
     <t>South Island Development Corporation</t>
   </si>
   <si>
-    <t>Spanish Mountain Gold Limited</t>
-  </si>
-  <si>
     <t>Spectra Energy Midstream Corporation</t>
   </si>
   <si>
@@ -3503,20 +3506,110 @@
     <t>WindRiver Power Corporation</t>
   </si>
   <si>
-    <t>Woodfibre LNG Limited</t>
-  </si>
-  <si>
     <t>Woodside Energy Holdings Pty Limited</t>
   </si>
   <si>
     <t>Xstrata Coal Canada Limited</t>
+  </si>
+  <si>
+    <t>Big White Ski Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bul River Mineral Corporation </t>
+  </si>
+  <si>
+    <t>Cedar LNG Partners LP</t>
+  </si>
+  <si>
+    <t>City of Surrey</t>
+  </si>
+  <si>
+    <t>GCT Canada Limited Partnership</t>
+  </si>
+  <si>
+    <t>Gold Mountain Mining Corp.</t>
+  </si>
+  <si>
+    <t>Malahat Investment Corporation</t>
+  </si>
+  <si>
+    <t>Nisga'a Nation, Rockies LNG Limited Partnership and Western LNG LLC</t>
+  </si>
+  <si>
+    <t>Spanish Mountain Gold Ltd.</t>
+  </si>
+  <si>
+    <t>Woodfibre LNG General Partner Inc.</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Organic and Inorganic Chemical Industry</t>
+  </si>
+  <si>
+    <t>Sub-Type</t>
+  </si>
+  <si>
+    <t>Local Government Solid Waste Management Facilities</t>
+  </si>
+  <si>
+    <t>Energy Storage Facilities</t>
+  </si>
+  <si>
+    <t>Hazardous Waste Facilities</t>
+  </si>
+  <si>
+    <t>Construction Stone and Industrial Mineral Quarries</t>
+  </si>
+  <si>
+    <t>Natural Gas Processing Plants</t>
+  </si>
+  <si>
+    <t>Marine Port Facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundwater Extraction </t>
+  </si>
+  <si>
+    <t>Transmission Pipelines</t>
+  </si>
+  <si>
+    <t>Non-metallic Mineral Products Industries</t>
+  </si>
+  <si>
+    <t>Forest Products Industries</t>
+  </si>
+  <si>
+    <t>Marine Port Projects</t>
+  </si>
+  <si>
+    <t>Electric Transmission Lines</t>
+  </si>
+  <si>
+    <t>Existing Data</t>
+  </si>
+  <si>
+    <t>Organic and Inorganic Chemical</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Energy-Petroleum &amp; Natural Gas</t>
+  </si>
+  <si>
+    <t>Energy-Electricity</t>
+  </si>
+  <si>
+    <t>Tourist Destination Resorts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3532,13 +3625,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3554,13 +3667,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3577,6 +3699,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Dinesh Balakrishnan" id="{4FB2321E-DD59-4F6B-A9B8-EFF00FD6F72D}" userId="e3cdc7e98225d4b2" providerId="Windows Live"/>
+  <person displayName="McDonald, Geoff L EAO:EX" id="{FCA15347-1B32-44B2-A9FA-642977E108AE}" userId="S::geoff.l.mcdonald@gov.bc.ca::8916c59a-c5fa-4ad8-918f-2a49a78e2884" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3868,10 +3997,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F1" dT="2023-01-16T20:38:37.19" personId="{4FB2321E-DD59-4F6B-A9B8-EFF00FD6F72D}" id="{B3D5B7EA-B78B-4B56-B9D8-E23A83646D1C}">
+    <text>Do we need to change the convention of calling these entities to Type and Sub-Type instead of Sector and Subsector rest of the places in the application?</text>
+  </threadedComment>
+  <threadedComment ref="F1" dT="2023-01-16T21:03:34.71" personId="{FCA15347-1B32-44B2-A9FA-642977E108AE}" id="{21BBCC5B-F23B-4844-895F-FF36D2DF9B2B}" parentId="{B3D5B7EA-B78B-4B56-B9D8-E23A83646D1C}">
+    <text>Yes
+This is the direction from Tiffany</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8370,11 +8511,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D1B8D0-617C-4E77-85E6-6BC60F440895}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8580,19 +8724,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB6494-FB3F-4E05-94C0-4435FE5FA959}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB6494-FB3F-4E05-94C0-4435FE5FA959}">
+  <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -8602,8 +8747,11 @@
       <c r="C1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8613,8 +8761,11 @@
       <c r="C2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8624,8 +8775,11 @@
       <c r="C3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8635,8 +8789,11 @@
       <c r="C4" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8646,8 +8803,11 @@
       <c r="C5" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8657,8 +8817,11 @@
       <c r="C6" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8668,8 +8831,11 @@
       <c r="C7" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8679,8 +8845,11 @@
       <c r="C8" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F8" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8690,8 +8859,11 @@
       <c r="C9" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8701,29 +8873,1016 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F176"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F177"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F194"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F196"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F210"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F212"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F213"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F215"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F216"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F219"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F220"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F226"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F227"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F229"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F233"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F234"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F241"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F242"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F243"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F244"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F245"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F246"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F247"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F248"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F249"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F250"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F251"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F252"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F253"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F254"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F255"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F256"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F257"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F258"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F259"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F260"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F261"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F262"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F263"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F264"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F265"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F266"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F267"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F268"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F269"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F270"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F271"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F272"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F274"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F275"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F276"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F300"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F301"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F302"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F303"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F304"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F305"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F306"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F307"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F308"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F312"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F313"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F314"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F317"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F318"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F319"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F320"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F321"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F322"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F323"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F324"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F325"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F326"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F327"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F328"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F329"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F330"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F331"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F332"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F333"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F334"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F335"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F336"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F337"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB6ECF1-9629-4964-A093-1D2D3D543244}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -8734,10 +9893,16 @@
         <v>849</v>
       </c>
       <c r="D1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1154</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8745,13 +9910,19 @@
         <v>779</v>
       </c>
       <c r="C2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D2" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8759,13 +9930,16 @@
         <v>785</v>
       </c>
       <c r="C3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D3" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" s="5" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8773,13 +9947,16 @@
         <v>786</v>
       </c>
       <c r="C4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D4" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8787,69 +9964,87 @@
         <v>790</v>
       </c>
       <c r="C5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D5" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>868</v>
+      </c>
+      <c r="C6" t="s">
         <v>869</v>
-      </c>
-      <c r="C6" t="s">
-        <v>870</v>
       </c>
       <c r="D6" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="6" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>870</v>
+      </c>
+      <c r="C7" t="s">
         <v>871</v>
-      </c>
-      <c r="C7" t="s">
-        <v>872</v>
       </c>
       <c r="D7" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7" s="6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C8" t="s">
         <v>873</v>
-      </c>
-      <c r="C8" t="s">
-        <v>874</v>
       </c>
       <c r="D8" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8" s="6" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>875</v>
+        <v>1155</v>
       </c>
       <c r="C9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D9" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8857,13 +10052,16 @@
         <v>792</v>
       </c>
       <c r="C10" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D10" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8871,32 +10069,38 @@
         <v>794</v>
       </c>
       <c r="C11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D11" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D12" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12" s="5" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -8904,8 +10108,11 @@
       <c r="D13" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8913,13 +10120,16 @@
         <v>796</v>
       </c>
       <c r="C14" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D14" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8927,13 +10137,16 @@
         <v>798</v>
       </c>
       <c r="C15" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D15" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15" s="6" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8941,83 +10154,104 @@
         <v>802</v>
       </c>
       <c r="C16" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D16" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C17" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D17" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" s="5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C18" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D18" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C19" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D19" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D20" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" s="5" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C21" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D21" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9025,13 +10259,16 @@
         <v>803</v>
       </c>
       <c r="C22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D22" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9039,13 +10276,16 @@
         <v>805</v>
       </c>
       <c r="C23" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D23" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G23" s="6" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9053,13 +10293,19 @@
         <v>807</v>
       </c>
       <c r="C24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D24" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G24" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H24" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9067,41 +10313,53 @@
         <v>809</v>
       </c>
       <c r="C25" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D25" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G25" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C26" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D26" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G26" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D27" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27" s="6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9109,13 +10367,16 @@
         <v>811</v>
       </c>
       <c r="C28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D28" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9123,13 +10384,16 @@
         <v>812</v>
       </c>
       <c r="C29" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D29" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9137,83 +10401,91 @@
         <v>815</v>
       </c>
       <c r="C30" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D30" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C31" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D31" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C32" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D32" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C33" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D33" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C34" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D34" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C35" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D35" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9221,13 +10493,14 @@
         <v>817</v>
       </c>
       <c r="C36" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D36" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9240,21 +10513,926 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G147"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G148"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G152"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G154"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G155"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G156"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G157"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G158"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G159"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G160"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G161"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G162"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G163"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G164"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G165"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G166"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G167"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G168"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G169"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G170"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G171"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G172"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G173"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G174"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G175"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G176"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G177"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G178"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G179"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G180"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G181"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G182"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G183"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G184"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G185"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G186"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G187"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G188"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G189"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G190"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G191"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G192"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G193"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G194"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G195"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G196"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G197"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G198"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G199"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G200"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G201"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G202"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G203"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G204"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G205"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G206"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G207"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G208"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G209"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G210"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G211"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G212"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G213"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G214"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G215"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G216"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G217"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G218"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G219"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G220"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G221"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G222"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G223"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G224"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G225"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G226"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G227"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G228"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G229"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G230"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G231"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G232"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G233"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G234"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G235"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G236"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G237"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G238"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G239"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G240"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G241"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G242"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G243"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G244"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G245"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G246"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G247"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G248"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G249"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G250"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G251"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G252"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G253"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G254"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G255"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G256"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G257"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G258"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G259"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G260"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G261"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G262"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G263"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G264"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G265"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G266"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G267"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G268"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G269"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G270"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G271"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G272"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G273"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G274"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G275"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G276"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G277"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G278"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G279"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G280"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G281"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G282"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G283"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G284"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G285"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G286"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G287"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G288"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G289"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G290"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G291"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G292"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G293"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G294"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G295"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G296"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G297"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G298"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G299"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G300"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G301"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G302"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G303"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G304"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G305"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G306"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G307"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G309"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G310"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G311"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G312"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G313"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G314"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G315"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G316"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G317"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G318"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G319"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G320"/>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G321"/>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G322"/>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G323"/>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G324"/>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G325"/>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G326"/>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G327"/>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G328"/>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G329"/>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G330"/>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G331"/>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G332"/>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G333"/>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G334"/>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G335"/>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G336"/>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G337"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006B38E-8EE3-4114-BDCC-276AF839E1D4}">
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="122.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9317,7 +11495,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9333,7 +11511,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9341,7 +11519,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9349,7 +11527,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9357,7 +11535,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9365,7 +11543,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9373,1975 +11551,2015 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>929</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>784</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>931</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>808</v>
+        <v>929</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>963</v>
+        <v>797</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>797</v>
+        <v>962</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>990</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>816</v>
+        <v>990</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>994</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>814</v>
+        <v>994</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>1004</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>810</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>1008</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>783</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>1013</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>595</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>1016</v>
+        <v>793</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>788</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>1024</v>
+        <v>806</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>806</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B164" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B167" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B183" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B184" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B185" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
-        <v>1081</v>
+        <v>795</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B190" t="s">
-        <v>795</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B193" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>1112</v>
+        <v>813</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>1113</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>813</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>800</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>1134</v>
+        <v>782</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>782</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B254" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>1146</v>
+        <v>799</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>799</v>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>266</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>267</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>268</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>269</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>270</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
